--- a/Research/Criteria&Constraints.xlsx
+++ b/Research/Criteria&Constraints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C614452-B312-4190-8A50-205695402B77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537F1202-91F4-4C70-B0E6-759EC6B10879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Criteria</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>No more than 4 layred PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,6 +440,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Research/Criteria&Constraints.xlsx
+++ b/Research/Criteria&Constraints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537F1202-91F4-4C70-B0E6-759EC6B10879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955AD038-7F4C-412B-8332-906848C5ABBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,32 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Criteria</t>
   </si>
   <si>
-    <t>0-50V Output range</t>
-  </si>
-  <si>
     <t>60W power</t>
   </si>
   <si>
-    <t>2x5V 5A outputs</t>
-  </si>
-  <si>
-    <t>2x3V3 2A outputs</t>
-  </si>
-  <si>
-    <t>2xUSBA 3A ports</t>
-  </si>
-  <si>
-    <t>1x PWM signal @5V</t>
-  </si>
-  <si>
-    <t>1x PWM signal @3V3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Constraints </t>
   </si>
   <si>
@@ -55,10 +37,22 @@
     <t>&lt;$50 BOM Cost</t>
   </si>
   <si>
-    <t>No more than 4 layred PCB</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0-24V Output range</t>
+  </si>
+  <si>
+    <t>No more than 4 layred</t>
+  </si>
+  <si>
+    <t>2x3V3 1A outputs</t>
+  </si>
+  <si>
+    <t>2x5V 2A outputs</t>
+  </si>
+  <si>
+    <t>2xUSBA 2A ports</t>
   </si>
 </sst>
 </file>
@@ -379,7 +373,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,56 +387,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
